--- a/hackthon/public/teams.xlsx
+++ b/hackthon/public/teams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="176">
   <si>
     <t>Team Name</t>
   </si>
@@ -25,64 +25,524 @@
     <t>College Name</t>
   </si>
   <si>
-    <t>Participant Names</t>
+    <t>Leader Name</t>
+  </si>
+  <si>
+    <t>Member 1</t>
+  </si>
+  <si>
+    <t>Member 2</t>
   </si>
   <si>
     <t>Themes</t>
   </si>
   <si>
-    <t>sambhala</t>
-  </si>
-  <si>
-    <t>Civic hub</t>
-  </si>
-  <si>
-    <t>NCIT</t>
-  </si>
-  <si>
-    <t>prabesh , Upendra , Deepak</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>Three hunters</t>
-  </si>
-  <si>
-    <t>Agri connect</t>
-  </si>
-  <si>
-    <t>Prabesh  , Suyog , Prashis</t>
+    <t>Member 3</t>
+  </si>
+  <si>
+    <t>4-Dimensions</t>
+  </si>
+  <si>
+    <t>KrishiGPT</t>
+  </si>
+  <si>
+    <t>Far Western University</t>
+  </si>
+  <si>
+    <t>Dipak Raj Giri</t>
+  </si>
+  <si>
+    <t>Dhiraj Pant</t>
+  </si>
+  <si>
+    <t>Dipa Joshi</t>
   </si>
   <si>
     <t>Agri-Tech</t>
   </si>
   <si>
-    <t>Vague: The Eliminator</t>
-  </si>
-  <si>
-    <t>Exam aid</t>
-  </si>
-  <si>
-    <t>prabesh , Upendra , Suyog , Prashis</t>
-  </si>
-  <si>
-    <t>Open innovation</t>
-  </si>
-  <si>
-    <t>Ohm</t>
-  </si>
-  <si>
-    <t>Language teacher</t>
-  </si>
-  <si>
-    <t>cosmos</t>
-  </si>
-  <si>
-    <t>Prabesh , Upendra</t>
-  </si>
-  <si>
-    <t>E-governance</t>
+    <t>Dilendra Singh Thagunna</t>
+  </si>
+  <si>
+    <t>Chill Pill</t>
+  </si>
+  <si>
+    <t>AgroTechBot</t>
+  </si>
+  <si>
+    <t>Thakur Ram Multiple Campus</t>
+  </si>
+  <si>
+    <t>Rabi Thakur</t>
+  </si>
+  <si>
+    <t>Pratiksha Karn</t>
+  </si>
+  <si>
+    <t>Arjendra Mandal</t>
+  </si>
+  <si>
+    <t>Sneha Kushwaha</t>
+  </si>
+  <si>
+    <t>P-Square</t>
+  </si>
+  <si>
+    <t>KrishiSanchar</t>
+  </si>
+  <si>
+    <t>Mechi Multiple Campus</t>
+  </si>
+  <si>
+    <t>Biddhan Pokhrel</t>
+  </si>
+  <si>
+    <t>Roman Khatri</t>
+  </si>
+  <si>
+    <t>Nisung Kerung</t>
+  </si>
+  <si>
+    <t>Haleshi Salleli Poudel</t>
+  </si>
+  <si>
+    <t>Entity 404</t>
+  </si>
+  <si>
+    <t>Kheti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal College of Information Technology
+</t>
+  </si>
+  <si>
+    <t>Krishav koirala</t>
+  </si>
+  <si>
+    <t>Samir katwal</t>
+  </si>
+  <si>
+    <t>Babisha Adhikari</t>
+  </si>
+  <si>
+    <t>Rahul Sah</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>Kishan Mitra</t>
+  </si>
+  <si>
+    <t>IIMS</t>
+  </si>
+  <si>
+    <t>Prashanna Maharjan</t>
+  </si>
+  <si>
+    <t>Pratham Shrestha</t>
+  </si>
+  <si>
+    <t>Tika Datta Gautam</t>
+  </si>
+  <si>
+    <t>Mahesh Karki</t>
+  </si>
+  <si>
+    <t>Team STAB 404</t>
+  </si>
+  <si>
+    <t>KriDristi (कृषि-दृष्टि)</t>
+  </si>
+  <si>
+    <t>Kathmandu University</t>
+  </si>
+  <si>
+    <t>Shristy Koirala</t>
+  </si>
+  <si>
+    <t>Amit Gupta</t>
+  </si>
+  <si>
+    <t>Tushar Parihast</t>
+  </si>
+  <si>
+    <t>Bhupendra Singh Badal</t>
+  </si>
+  <si>
+    <t>The Debuggers</t>
+  </si>
+  <si>
+    <t>SmartGov Nepal</t>
+  </si>
+  <si>
+    <t>Ambition College</t>
+  </si>
+  <si>
+    <t>Nischal Dhungel</t>
+  </si>
+  <si>
+    <t>Anupam Bista</t>
+  </si>
+  <si>
+    <t>Nimesh Regmi</t>
+  </si>
+  <si>
+    <t>E-Governance</t>
+  </si>
+  <si>
+    <t>DizzyBits</t>
+  </si>
+  <si>
+    <t>TomatoBot</t>
+  </si>
+  <si>
+    <t>Ashish Gupta</t>
+  </si>
+  <si>
+    <t>Rubina Dangol Maharjan</t>
+  </si>
+  <si>
+    <t>Santit Shakya</t>
+  </si>
+  <si>
+    <t>Me and the boys</t>
+  </si>
+  <si>
+    <t>SmartGov Bot</t>
+  </si>
+  <si>
+    <t>Itahari international college</t>
+  </si>
+  <si>
+    <t>Ashish Limbu</t>
+  </si>
+  <si>
+    <t>Umar Ansari</t>
+  </si>
+  <si>
+    <t>Bidur Siwakoti</t>
+  </si>
+  <si>
+    <t>Christopher Pokherel</t>
+  </si>
+  <si>
+    <t>2 bit</t>
+  </si>
+  <si>
+    <t>सत्यनिष्ठ</t>
+  </si>
+  <si>
+    <t>Nepal College of Information Technology</t>
+  </si>
+  <si>
+    <t>Aakriti Dahal</t>
+  </si>
+  <si>
+    <t>Adarsha Pokharel</t>
+  </si>
+  <si>
+    <t>Devendra Khatri</t>
+  </si>
+  <si>
+    <t>Snigdha Adhikari</t>
+  </si>
+  <si>
+    <t>Glitching But Chilling</t>
+  </si>
+  <si>
+    <t>Aalochana</t>
+  </si>
+  <si>
+    <t>Kathmandu University-SOE</t>
+  </si>
+  <si>
+    <t>Sumira Makaju</t>
+  </si>
+  <si>
+    <t>Aaditya Shrestha</t>
+  </si>
+  <si>
+    <t>Aayusha Jaspau</t>
+  </si>
+  <si>
+    <t>Ankit Kumar Karn</t>
+  </si>
+  <si>
+    <t>Iterators</t>
+  </si>
+  <si>
+    <t>Janata Voice</t>
+  </si>
+  <si>
+    <t>Arpan Adhikari</t>
+  </si>
+  <si>
+    <t>Sandesh Khadka</t>
+  </si>
+  <si>
+    <t>Abishek Khadka</t>
+  </si>
+  <si>
+    <t>Sanjog Sharma</t>
+  </si>
+  <si>
+    <t>NeuroMedics</t>
+  </si>
+  <si>
+    <t>NeuroLens</t>
+  </si>
+  <si>
+    <t>Ashitom Budhathoki</t>
+  </si>
+  <si>
+    <t>Suraj Bhattarai</t>
+  </si>
+  <si>
+    <t>Samir Panday</t>
+  </si>
+  <si>
+    <t>Health Tech</t>
+  </si>
+  <si>
+    <t>Safal Gautam</t>
+  </si>
+  <si>
+    <t>Code Odessy</t>
+  </si>
+  <si>
+    <t>DawaiDaata</t>
+  </si>
+  <si>
+    <t>Sagarmtha Engineering College</t>
+  </si>
+  <si>
+    <t>Kritan Shrestha</t>
+  </si>
+  <si>
+    <t>Prashant Panthi</t>
+  </si>
+  <si>
+    <t>Krilsha Shrestha</t>
+  </si>
+  <si>
+    <t>Bibek dhungel</t>
+  </si>
+  <si>
+    <t>D-Buggers</t>
+  </si>
+  <si>
+    <t>Aama Care</t>
+  </si>
+  <si>
+    <t>Pratik Dangal</t>
+  </si>
+  <si>
+    <t>Prashanna Pokharel</t>
+  </si>
+  <si>
+    <t>Nebil Khanal</t>
+  </si>
+  <si>
+    <t>Naman Yadav</t>
+  </si>
+  <si>
+    <t>Cipher</t>
+  </si>
+  <si>
+    <t>HealthChain</t>
+  </si>
+  <si>
+    <t>IIMS College</t>
+  </si>
+  <si>
+    <t>Hemanta Acharya</t>
+  </si>
+  <si>
+    <t>Ishan Maharjan</t>
+  </si>
+  <si>
+    <t>Subit Timalsina</t>
+  </si>
+  <si>
+    <t>Smritee Kala Rai</t>
+  </si>
+  <si>
+    <t>Yantra</t>
+  </si>
+  <si>
+    <t>SajiloRehab</t>
+  </si>
+  <si>
+    <t>Mohit Adhikari</t>
+  </si>
+  <si>
+    <t>subodh badal</t>
+  </si>
+  <si>
+    <t>Bal Makunda Acharya</t>
+  </si>
+  <si>
+    <t>Binit Gurung</t>
+  </si>
+  <si>
+    <t>Sidewinders</t>
+  </si>
+  <si>
+    <t>SANDUK : A Family Health Vault</t>
+  </si>
+  <si>
+    <t>Himalaya College Of Engineering</t>
+  </si>
+  <si>
+    <t>Stuti Upreti</t>
+  </si>
+  <si>
+    <t>Prakriti Shrestha</t>
+  </si>
+  <si>
+    <t>Anshu Gahire</t>
+  </si>
+  <si>
+    <t>Amrit Chapai</t>
+  </si>
+  <si>
+    <t>Heisenberg</t>
+  </si>
+  <si>
+    <t>Adarsha Paudyal</t>
+  </si>
+  <si>
+    <t>Liladhar Bhatta</t>
+  </si>
+  <si>
+    <t>Saurav Sharma</t>
+  </si>
+  <si>
+    <t>Tech Tacticos</t>
+  </si>
+  <si>
+    <t>Spinovate</t>
+  </si>
+  <si>
+    <t>Santosh Yadav</t>
+  </si>
+  <si>
+    <t>Diwas Parajuli</t>
+  </si>
+  <si>
+    <t>Aayush Pokhrel</t>
+  </si>
+  <si>
+    <t>Aavash Lamichhane</t>
+  </si>
+  <si>
+    <t>Nightingale</t>
+  </si>
+  <si>
+    <t>MedicMitra</t>
+  </si>
+  <si>
+    <t>Nepal Collage of information technology</t>
+  </si>
+  <si>
+    <t>Apil Khadka</t>
+  </si>
+  <si>
+    <t>Bijay Bhatta</t>
+  </si>
+  <si>
+    <t>Birat Ghimire</t>
+  </si>
+  <si>
+    <t>Open Innovation</t>
+  </si>
+  <si>
+    <t>Anup Pant</t>
+  </si>
+  <si>
+    <t>Syntax Error</t>
+  </si>
+  <si>
+    <t>Chronova</t>
+  </si>
+  <si>
+    <t>Khwopa College of Engineering</t>
+  </si>
+  <si>
+    <t>Jeeni Shrestha</t>
+  </si>
+  <si>
+    <t>Isha Bhattarai</t>
+  </si>
+  <si>
+    <t>Jenisha Shrestha</t>
+  </si>
+  <si>
+    <t>Sejal Dahal</t>
+  </si>
+  <si>
+    <t>BM UNity</t>
+  </si>
+  <si>
+    <t>SMART DUSTBIN</t>
+  </si>
+  <si>
+    <t>Thapathali Institute of Engineering (IOE)</t>
+  </si>
+  <si>
+    <t>Bibek Joshi</t>
+  </si>
+  <si>
+    <t>Neev Badu</t>
+  </si>
+  <si>
+    <t>Manish Joshi</t>
+  </si>
+  <si>
+    <t>Ujjwal Dahal</t>
+  </si>
+  <si>
+    <t>Incognito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoPilot </t>
+  </si>
+  <si>
+    <t>Sunway College Kathmandu</t>
+  </si>
+  <si>
+    <t>Sanket Shrestha</t>
+  </si>
+  <si>
+    <t>Krrishpana Karmacharya</t>
+  </si>
+  <si>
+    <t>Aarif Shrestha</t>
+  </si>
+  <si>
+    <t>Dip Darpan Kandel</t>
+  </si>
+  <si>
+    <t>ReSearchers-AI</t>
+  </si>
+  <si>
+    <t>RESEARCH IT</t>
+  </si>
+  <si>
+    <t>Kathmandu University School of Engineering</t>
+  </si>
+  <si>
+    <t>Royas Shakya</t>
+  </si>
+  <si>
+    <t>Kshitiz Khanal</t>
+  </si>
+  <si>
+    <t>Nirjara Thapa</t>
+  </si>
+  <si>
+    <t>Sakshi KC</t>
   </si>
 </sst>
 </file>
@@ -171,6 +631,51 @@
         <color rgb="FF284e3f"/>
       </left>
       <right style="thin">
+        <color rgb="FFffffff"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFffffff"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffffff"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFffffff"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFffffff"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFffffff"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffffff"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFffffff"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284e3f"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFffffff"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFffffff"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284e3f"/>
+      </left>
+      <right style="thin">
         <color rgb="FFf6f8f9"/>
       </right>
       <top style="thin">
@@ -222,7 +727,7 @@
         <color rgb="FFffffff"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFffffff"/>
+        <color rgb="FF284e3f"/>
       </bottom>
       <diagonal/>
     </border>
@@ -237,7 +742,7 @@
         <color rgb="FFffffff"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFffffff"/>
+        <color rgb="FF284e3f"/>
       </bottom>
       <diagonal/>
     </border>
@@ -252,51 +757,6 @@
         <color rgb="FFffffff"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFffffff"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284e3f"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFf6f8f9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFf6f8f9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284e3f"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFf6f8f9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFf6f8f9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFf6f8f9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284e3f"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFf6f8f9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284e3f"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFf6f8f9"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF284e3f"/>
       </bottom>
       <diagonal/>
@@ -305,22 +765,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -346,6 +815,9 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" builtinId="0" name="Normal"/>
@@ -361,15 +833,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D14" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:D14"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:H36" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:H36"/>
+  <tableColumns count="8">
     <tableColumn name="Team Name" id="1"/>
     <tableColumn name="Project Name" id="2"/>
     <tableColumn name="College Name" id="3"/>
-    <tableColumn name="Participant Names" id="4"/>
+    <tableColumn name="Leader Name" id="4"/>
+    <tableColumn name="Member 1" id="5"/>
+    <tableColumn name="Member 2" id="6"/>
+    <tableColumn name="Themes" id="7"/>
+    <tableColumn name="Member 3" id="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="0" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="1" showFirstColumn="1"/>
 </table>
 </file>
 
@@ -384,28 +860,28 @@
         <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F818D"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -661,7 +1137,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -669,21 +1145,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="13" width="21.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="21.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="60.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="35.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="47.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
-      <c r="A1" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5" customFormat="1" s="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -692,137 +1171,759 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>13</v>
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
+      <c r="H4" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>22</v>
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+      <c r="A7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+      <c r="A11" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="16.5">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="16.5">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="16.5">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="16.5">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="16.5">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hackthon/public/teams.xlsx
+++ b/hackthon/public/teams.xlsx
@@ -338,7 +338,7 @@
     <t>Pratik Dangal</t>
   </si>
   <si>
-    <t>Prashanna Pokharel</t>
+    <t>Sugam Pandit</t>
   </si>
   <si>
     <t>Nebil Khanal</t>
@@ -550,7 +550,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +564,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -573,7 +579,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -609,6 +615,13 @@
       <bottom style="thin">
         <color rgb="FF284e3f"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -776,23 +789,20 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -810,6 +820,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1149,7 +1162,7 @@
     <col min="2" max="2" style="16" width="35.14785714285715" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="16" width="47.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="17" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>

--- a/hackthon/public/teams.xlsx
+++ b/hackthon/public/teams.xlsx
@@ -52,7 +52,7 @@
     <t>Dipak Raj Giri</t>
   </si>
   <si>
-    <t>Dhiraj Pant</t>
+    <t>Sameer Bhatt</t>
   </si>
   <si>
     <t>Dipa Joshi</t>
@@ -566,7 +566,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>

--- a/hackthon/public/teams.xlsx
+++ b/hackthon/public/teams.xlsx
@@ -347,25 +347,25 @@
     <t>Naman Yadav</t>
   </si>
   <si>
-    <t>Cipher</t>
-  </si>
-  <si>
-    <t>HealthChain</t>
-  </si>
-  <si>
-    <t>IIMS College</t>
-  </si>
-  <si>
-    <t>Hemanta Acharya</t>
-  </si>
-  <si>
-    <t>Ishan Maharjan</t>
-  </si>
-  <si>
-    <t>Subit Timalsina</t>
-  </si>
-  <si>
-    <t>Smritee Kala Rai</t>
+    <t>Techtonic</t>
+  </si>
+  <si>
+    <t>Mind Bridge</t>
+  </si>
+  <si>
+    <t>IOE Purwanchal Campus</t>
+  </si>
+  <si>
+    <t>Jeevan Kumar Kushwaha</t>
+  </si>
+  <si>
+    <t>Kritam Bhattarai</t>
+  </si>
+  <si>
+    <t>Dipesh Acharya</t>
+  </si>
+  <si>
+    <t>Kushal Adhikari</t>
   </si>
   <si>
     <t>Yantra</t>
@@ -1159,13 +1159,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="35.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="47.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="42.57642857142857" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="16" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="18.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5" customFormat="1" s="1">

--- a/hackthon/public/teams.xlsx
+++ b/hackthon/public/teams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="178">
   <si>
     <t>Team Name</t>
   </si>
@@ -170,40 +170,46 @@
     <t>Bhupendra Singh Badal</t>
   </si>
   <si>
-    <t>The Debuggers</t>
-  </si>
-  <si>
-    <t>SmartGov Nepal</t>
-  </si>
-  <si>
-    <t>Ambition College</t>
-  </si>
-  <si>
-    <t>Nischal Dhungel</t>
-  </si>
-  <si>
-    <t>Anupam Bista</t>
-  </si>
-  <si>
-    <t>Nimesh Regmi</t>
+    <t>Git Push Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BhrashtaBusters </t>
+  </si>
+  <si>
+    <t>Nepal Engineering College</t>
+  </si>
+  <si>
+    <t>Abhinab Timalsina</t>
+  </si>
+  <si>
+    <t>Ayush Dev</t>
+  </si>
+  <si>
+    <t>Arya Dahal</t>
   </si>
   <si>
     <t>E-Governance</t>
   </si>
   <si>
-    <t>DizzyBits</t>
+    <t>ACE</t>
   </si>
   <si>
     <t>TomatoBot</t>
   </si>
   <si>
-    <t>Ashish Gupta</t>
-  </si>
-  <si>
-    <t>Rubina Dangol Maharjan</t>
-  </si>
-  <si>
-    <t>Santit Shakya</t>
+    <t>Advanced College of Engineering and Management</t>
+  </si>
+  <si>
+    <t>Pramit Kaucha Magar</t>
+  </si>
+  <si>
+    <t>Nisrit Baral</t>
+  </si>
+  <si>
+    <t>Aarogya Parajuli</t>
+  </si>
+  <si>
+    <t>Nikash Lamsal</t>
   </si>
   <si>
     <t>Me and the boys</t>
@@ -1194,7 +1200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -1324,7 +1330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
       <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1374,7 +1380,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="10" t="s">
         <v>58</v>
       </c>
@@ -1382,460 +1388,462 @@
         <v>59</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="H9" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
       <c r="A12" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
       <c r="A13" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
       <c r="A14" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+        <v>98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
       <c r="A15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>95</v>
-      </c>
       <c r="H15" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
       <c r="A16" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
       <c r="A17" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+        <v>118</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
       <c r="A18" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+        <v>124</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
       <c r="A19" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
       <c r="A20" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H20" s="9"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>146</v>
-      </c>
       <c r="H23" s="12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">

--- a/hackthon/public/teams.xlsx
+++ b/hackthon/public/teams.xlsx
@@ -194,7 +194,7 @@
     <t>ACE</t>
   </si>
   <si>
-    <t>TomatoBot</t>
+    <t>GrowSense</t>
   </si>
   <si>
     <t>Advanced College of Engineering and Management</t>

--- a/hackthon/public/teams.xlsx
+++ b/hackthon/public/teams.xlsx
@@ -1330,7 +1330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="10" t="s">
         <v>44</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="10" t="s">
         <v>58</v>
       </c>
@@ -1400,13 +1400,13 @@
         <v>63</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="6" t="s">
         <v>65</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="10" t="s">
         <v>72</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="6" t="s">
         <v>79</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="10" t="s">
         <v>86</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="6" t="s">
         <v>92</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="10" t="s">
         <v>99</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="6" t="s">
         <v>106</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="10" t="s">
         <v>112</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>118</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="6" t="s">
         <v>119</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="10" t="s">
         <v>125</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>131</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="6" t="s">
         <v>132</v>
       </c>

--- a/hackthon/public/teams.xlsx
+++ b/hackthon/public/teams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="179">
   <si>
     <t>Team Name</t>
   </si>
@@ -416,6 +416,9 @@
     <t>Heisenberg</t>
   </si>
   <si>
+    <t>Automatic Accident Detection and Response System</t>
+  </si>
+  <si>
     <t>Adarsha Paudyal</t>
   </si>
   <si>
@@ -428,7 +431,7 @@
     <t>Tech Tacticos</t>
   </si>
   <si>
-    <t>Spinovate</t>
+    <t/>
   </si>
   <si>
     <t>Santosh Yadav</t>
@@ -784,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -820,6 +823,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -1164,14 +1170,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="42.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="16" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="42.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="17" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="17" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="18.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5" customFormat="1" s="1">
@@ -1200,7 +1206,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
@@ -1278,7 +1284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="10" t="s">
         <v>30</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
@@ -1671,19 +1677,19 @@
         <v>132</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>97</v>
@@ -1692,158 +1698,158 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="11" t="s">
         <v>137</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
       <c r="A26" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18">
@@ -1937,14 +1943,14 @@
       <c r="H35" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="15"/>
+      <c r="H36" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hackthon/public/teams.xlsx
+++ b/hackthon/public/teams.xlsx
@@ -452,7 +452,7 @@
     <t>MedicMitra</t>
   </si>
   <si>
-    <t>Nepal Collage of information technology</t>
+    <t>Nepal College of information technology</t>
   </si>
   <si>
     <t>Apil Khadka</t>

--- a/hackthon/public/teams.xlsx
+++ b/hackthon/public/teams.xlsx
@@ -320,7 +320,7 @@
     <t>DawaiDaata</t>
   </si>
   <si>
-    <t>Sagarmtha Engineering College</t>
+    <t>Sagarmatha Engineering College</t>
   </si>
   <si>
     <t>Kritan Shrestha</t>
@@ -431,7 +431,7 @@
     <t>Tech Tacticos</t>
   </si>
   <si>
-    <t/>
+    <t>Spinovate</t>
   </si>
   <si>
     <t>Santosh Yadav</t>
@@ -787,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -823,9 +823,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -1170,14 +1167,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="17" width="30.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="42.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="16" width="30.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="42.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="18.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5" customFormat="1" s="1">
@@ -1700,7 +1697,7 @@
       <c r="A21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C21" s="11" t="s">
@@ -1943,14 +1940,14 @@
       <c r="H35" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="16.5">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="16"/>
+      <c r="H36" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
